--- a/data/Perfil_curso_v3.xlsx
+++ b/data/Perfil_curso_v3.xlsx
@@ -1659,18 +1659,18 @@
   <dimension ref="A1:AD554"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
+      <selection pane="topLeft" activeCell="AE9" activeCellId="0" sqref="AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="51.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="41.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="3.55"/>
